--- a/01_Raw_Data/One_Time_Efforts/2020_CDPHE_PFAS_Fish_Pilot.xlsx
+++ b/01_Raw_Data/One_Time_Efforts/2020_CDPHE_PFAS_Fish_Pilot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Shared drives\_CDPHE TEEO Data\_Enviro\PFAS\PFAS_Map_Series\PFAS_Map_Series_R\01_Raw_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Shared drives\_CDPHE TEEO Data\_Enviro\PFAS\PFAS_Map_Series\PFAS_Map_Series_R\01_Raw_Data\One_Time_Efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,28 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
-  <si>
-    <t>Data_Source</t>
-  </si>
-  <si>
-    <t>Sample_Date</t>
-  </si>
-  <si>
-    <t>Name_OR_Site</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Number_Samples</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>PFOS_Water</t>
   </si>
@@ -45,12 +31,6 @@
     <t>PFOSPFOASum_Water</t>
   </si>
   <si>
-    <t>Link_More_Info</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -63,62 +43,89 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Fish_Species</t>
-  </si>
-  <si>
-    <t>Sum_PFOS_PFOA</t>
-  </si>
-  <si>
     <t>PFOS</t>
   </si>
   <si>
     <t>PFOA</t>
   </si>
   <si>
-    <t>CDPHE Pilot Study 2020</t>
-  </si>
-  <si>
     <t>Tabor</t>
   </si>
   <si>
-    <t>Wheatridge</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Q3CDUGFGRI6wcp5kbk_DjOtcLqnp8PMh/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Fish Tissue</t>
-  </si>
-  <si>
     <t>ng/g</t>
   </si>
   <si>
-    <t>Multipe samples of multiple species. See more info link for results.</t>
-  </si>
-  <si>
-    <t>Multipe samples of multiple species.</t>
-  </si>
-  <si>
-    <t>See more info link</t>
-  </si>
-  <si>
     <t>Mann Nyholt</t>
   </si>
   <si>
-    <t>Henderson</t>
-  </si>
-  <si>
     <t>Willow Springs Ponds</t>
   </si>
   <si>
-    <t>Fountain</t>
+    <t>2020 PFAS Fish Sampling Pilot Project</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Fish tissue</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Sum of PFOA and PFOS</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://coepht.colorado.gov/fish-consumption</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>CDPHE's Water Quality Control Division</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Multiple samples for multiple species were collected at this waterbody. See link for dashboard with  results.</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>See Notes column.</t>
+  </si>
+  <si>
+    <t>Wheat Ridge, CO 80033</t>
+  </si>
+  <si>
+    <t>Henderson, CO 80601</t>
+  </si>
+  <si>
+    <t>Fountain, CO 80817</t>
+  </si>
+  <si>
+    <t>Sample date</t>
+  </si>
+  <si>
+    <t>Number of samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +141,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,14 +164,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,236 +510,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD10"/>
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="30.5703125" style="6"/>
+    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="6" customWidth="1"/>
+    <col min="7" max="11" width="30.5703125" style="6"/>
+    <col min="12" max="12" width="70.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="30.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44090</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6">
+        <v>39.775497854400001</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-105.133601859</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44061</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6">
+        <v>39.926756034699999</v>
+      </c>
+      <c r="J3" s="6">
+        <v>-104.87081331500001</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44083</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6">
+        <v>38.724205981899999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-104.727401137</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="30.5703125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2">
+        <v>10.4</v>
+      </c>
+      <c r="C2">
+        <v>12.2</v>
+      </c>
+      <c r="D2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B3">
+        <v>8.9</v>
+      </c>
+      <c r="C3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D3">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>10.4</v>
-      </c>
-      <c r="G2">
-        <v>12.2</v>
-      </c>
-      <c r="H2">
-        <v>22.6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>39.775497854400001</v>
-      </c>
-      <c r="L2">
-        <v>-105.133601859</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>2020</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>8.9</v>
-      </c>
-      <c r="G3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>39.926756034699999</v>
-      </c>
-      <c r="L3">
-        <v>-104.87081331500001</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
       <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
         <v>101</v>
       </c>
-      <c r="G4">
+      <c r="C4">
         <v>62</v>
       </c>
-      <c r="H4">
+      <c r="D4">
         <v>163</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>38.724205981899999</v>
-      </c>
-      <c r="L4">
-        <v>-104.727401137</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
